--- a/new_data/Compare structure.xlsx
+++ b/new_data/Compare structure.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Huu Truong Le\Desktop\CODING\SEW-data-analysis\new_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Truong Le\CODING\SEW-data-analysis\new_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACB8B2FE-2C02-4BE9-8543-D9D01232668E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A05ED6D0-0928-4A4E-AC8B-29C93BEEB12E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -686,17 +686,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q117"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X13" sqref="X13"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U38" sqref="U38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -707,7 +707,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -718,7 +718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>2</v>
       </c>
@@ -729,7 +729,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>3</v>
       </c>
@@ -740,7 +740,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>4</v>
       </c>
@@ -751,7 +751,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>5</v>
       </c>
@@ -762,7 +762,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>6</v>
       </c>
@@ -773,7 +773,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>7</v>
       </c>
@@ -784,7 +784,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>8</v>
       </c>
@@ -795,7 +795,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>9</v>
       </c>
@@ -806,7 +806,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>10</v>
       </c>
@@ -817,7 +817,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>11</v>
       </c>
@@ -828,7 +828,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>12</v>
       </c>
@@ -839,7 +839,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>13</v>
       </c>
@@ -850,7 +850,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>14</v>
       </c>
@@ -861,7 +861,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>15</v>
       </c>
@@ -872,7 +872,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>16</v>
       </c>
@@ -883,7 +883,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>15</v>
       </c>
@@ -894,7 +894,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>17</v>
       </c>
@@ -905,7 +905,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
       <c r="D20" t="s">
         <v>18</v>
       </c>
@@ -916,7 +916,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>19</v>
       </c>
@@ -927,7 +927,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>20</v>
       </c>
@@ -938,7 +938,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>21</v>
       </c>
@@ -949,7 +949,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>22</v>
       </c>
@@ -960,7 +960,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.3">
       <c r="D25" t="s">
         <v>20</v>
       </c>
@@ -971,7 +971,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.3">
       <c r="D26" t="s">
         <v>23</v>
       </c>
@@ -982,7 +982,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.3">
       <c r="D27" t="s">
         <v>24</v>
       </c>
@@ -993,7 +993,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>25</v>
       </c>
@@ -1004,7 +1004,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>26</v>
       </c>
@@ -1015,7 +1015,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>27</v>
       </c>
@@ -1026,7 +1026,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>28</v>
       </c>
@@ -1037,7 +1037,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:17" x14ac:dyDescent="0.3">
       <c r="D32" t="s">
         <v>20</v>
       </c>
@@ -1048,7 +1048,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.3">
       <c r="D33" t="s">
         <v>23</v>
       </c>
@@ -1059,7 +1059,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.3">
       <c r="D34" t="s">
         <v>24</v>
       </c>
@@ -1070,7 +1070,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>29</v>
       </c>
@@ -1081,7 +1081,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>30</v>
       </c>
@@ -1092,7 +1092,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>31</v>
       </c>
@@ -1103,7 +1103,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>32</v>
       </c>
@@ -1114,7 +1114,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>33</v>
       </c>
@@ -1125,7 +1125,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>34</v>
       </c>
@@ -1136,7 +1136,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>35</v>
       </c>
@@ -1147,7 +1147,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>36</v>
       </c>
@@ -1158,7 +1158,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>37</v>
       </c>
@@ -1169,7 +1169,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
         <v>38</v>
       </c>
@@ -1180,7 +1180,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>39</v>
       </c>
@@ -1191,7 +1191,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>40</v>
       </c>
@@ -1202,7 +1202,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>41</v>
       </c>
@@ -1213,7 +1213,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>42</v>
       </c>
@@ -1224,7 +1224,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="49" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>43</v>
       </c>
@@ -1235,7 +1235,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="50" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>44</v>
       </c>
@@ -1246,7 +1246,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="51" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>45</v>
       </c>
@@ -1257,7 +1257,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="52" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>46</v>
       </c>
@@ -1268,7 +1268,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
         <v>47</v>
       </c>
@@ -1279,7 +1279,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="54" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>48</v>
       </c>
@@ -1290,7 +1290,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="55" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>49</v>
       </c>
@@ -1301,7 +1301,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="56" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>50</v>
       </c>
@@ -1312,7 +1312,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="57" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:17" x14ac:dyDescent="0.3">
       <c r="D57" t="s">
         <v>51</v>
       </c>
@@ -1323,7 +1323,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="58" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:17" x14ac:dyDescent="0.3">
       <c r="D58" t="s">
         <v>52</v>
       </c>
@@ -1334,7 +1334,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="59" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:17" x14ac:dyDescent="0.3">
       <c r="D59" t="s">
         <v>53</v>
       </c>
@@ -1345,7 +1345,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="60" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:17" x14ac:dyDescent="0.3">
       <c r="D60" t="s">
         <v>54</v>
       </c>
@@ -1356,7 +1356,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="61" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:17" x14ac:dyDescent="0.3">
       <c r="D61" t="s">
         <v>55</v>
       </c>
@@ -1367,7 +1367,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="62" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:17" x14ac:dyDescent="0.3">
       <c r="D62" t="s">
         <v>56</v>
       </c>
@@ -1378,7 +1378,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="63" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:17" x14ac:dyDescent="0.3">
       <c r="D63" t="s">
         <v>57</v>
       </c>
@@ -1389,7 +1389,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="64" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:17" x14ac:dyDescent="0.3">
       <c r="D64" t="s">
         <v>58</v>
       </c>
@@ -1400,7 +1400,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="65" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="65" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D65" t="s">
         <v>59</v>
       </c>
@@ -1411,7 +1411,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="66" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="66" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D66" t="s">
         <v>60</v>
       </c>
@@ -1422,7 +1422,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="67" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="67" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D67" t="s">
         <v>61</v>
       </c>
@@ -1433,7 +1433,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="68" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="68" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D68" t="s">
         <v>62</v>
       </c>
@@ -1444,7 +1444,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="69" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="69" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D69" t="s">
         <v>63</v>
       </c>
@@ -1455,7 +1455,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="70" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="70" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D70" t="s">
         <v>64</v>
       </c>
@@ -1466,7 +1466,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="71" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="71" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D71" t="s">
         <v>65</v>
       </c>
@@ -1477,7 +1477,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="72" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="72" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D72" t="s">
         <v>66</v>
       </c>
@@ -1488,7 +1488,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="73" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="73" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D73" t="s">
         <v>67</v>
       </c>
@@ -1499,7 +1499,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="74" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="74" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D74" t="s">
         <v>68</v>
       </c>
@@ -1510,7 +1510,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="75" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="75" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D75" t="s">
         <v>69</v>
       </c>
@@ -1521,7 +1521,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="76" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="76" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D76" t="s">
         <v>70</v>
       </c>
@@ -1532,7 +1532,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="77" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="77" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D77" t="s">
         <v>71</v>
       </c>
@@ -1543,7 +1543,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="78" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="78" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D78" t="s">
         <v>72</v>
       </c>
@@ -1554,7 +1554,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="79" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="79" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D79" t="s">
         <v>73</v>
       </c>
@@ -1565,7 +1565,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="80" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="80" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D80" t="s">
         <v>74</v>
       </c>
@@ -1576,7 +1576,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="81" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:17" x14ac:dyDescent="0.3">
       <c r="D81" t="s">
         <v>75</v>
       </c>
@@ -1587,7 +1587,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="82" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:17" x14ac:dyDescent="0.3">
       <c r="D82" t="s">
         <v>76</v>
       </c>
@@ -1598,7 +1598,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:17" x14ac:dyDescent="0.3">
       <c r="D83" t="s">
         <v>77</v>
       </c>
@@ -1609,7 +1609,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="84" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B84" t="s">
         <v>78</v>
       </c>
@@ -1620,7 +1620,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="85" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B85" t="s">
         <v>79</v>
       </c>
@@ -1631,7 +1631,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="86" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>80</v>
       </c>
@@ -1642,7 +1642,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="87" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:17" x14ac:dyDescent="0.3">
       <c r="D87" t="s">
         <v>81</v>
       </c>
@@ -1653,7 +1653,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="88" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:17" x14ac:dyDescent="0.3">
       <c r="D88" t="s">
         <v>81</v>
       </c>
@@ -1664,7 +1664,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="89" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:17" x14ac:dyDescent="0.3">
       <c r="D89" t="s">
         <v>81</v>
       </c>
@@ -1675,7 +1675,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="90" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:17" x14ac:dyDescent="0.3">
       <c r="D90" t="s">
         <v>81</v>
       </c>
@@ -1686,7 +1686,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="91" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:17" x14ac:dyDescent="0.3">
       <c r="D91" t="s">
         <v>82</v>
       </c>
@@ -1697,7 +1697,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="92" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:17" x14ac:dyDescent="0.3">
       <c r="D92" t="s">
         <v>81</v>
       </c>
@@ -1708,7 +1708,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="93" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:17" x14ac:dyDescent="0.3">
       <c r="D93" t="s">
         <v>83</v>
       </c>
@@ -1719,7 +1719,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="94" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:17" x14ac:dyDescent="0.3">
       <c r="D94" t="s">
         <v>81</v>
       </c>
@@ -1730,7 +1730,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="95" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:17" x14ac:dyDescent="0.3">
       <c r="D95" t="s">
         <v>82</v>
       </c>
@@ -1741,7 +1741,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="96" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:17" x14ac:dyDescent="0.3">
       <c r="D96" t="s">
         <v>83</v>
       </c>
@@ -1752,7 +1752,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="97" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:17" x14ac:dyDescent="0.3">
       <c r="D97" t="s">
         <v>83</v>
       </c>
@@ -1763,7 +1763,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="98" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:17" x14ac:dyDescent="0.3">
       <c r="D98" t="s">
         <v>82</v>
       </c>
@@ -1774,7 +1774,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="99" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C99" t="s">
         <v>84</v>
       </c>
@@ -1785,7 +1785,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="100" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C100" t="s">
         <v>85</v>
       </c>
@@ -1796,7 +1796,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="101" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C101" t="s">
         <v>86</v>
       </c>
@@ -1807,7 +1807,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="102" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:17" x14ac:dyDescent="0.3">
       <c r="D102" t="s">
         <v>87</v>
       </c>
@@ -1818,7 +1818,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="103" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:17" x14ac:dyDescent="0.3">
       <c r="D103" t="s">
         <v>88</v>
       </c>
@@ -1829,7 +1829,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="104" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:17" x14ac:dyDescent="0.3">
       <c r="D104" t="s">
         <v>89</v>
       </c>
@@ -1840,7 +1840,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="105" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C105" t="s">
         <v>90</v>
       </c>
@@ -1851,7 +1851,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="106" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:17" x14ac:dyDescent="0.3">
       <c r="D106" t="s">
         <v>91</v>
       </c>
@@ -1862,7 +1862,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="107" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B107" t="s">
         <v>92</v>
       </c>
@@ -1873,7 +1873,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="108" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C108" t="s">
         <v>93</v>
       </c>
@@ -1884,7 +1884,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="109" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C109" t="s">
         <v>94</v>
       </c>
@@ -1895,7 +1895,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="110" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C110" t="s">
         <v>95</v>
       </c>
@@ -1906,7 +1906,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="111" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C111" t="s">
         <v>96</v>
       </c>
@@ -1917,7 +1917,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="112" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C112" t="s">
         <v>97</v>
       </c>
@@ -1928,7 +1928,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="113" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C113" t="s">
         <v>98</v>
       </c>
@@ -1939,7 +1939,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="114" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:15" x14ac:dyDescent="0.3">
       <c r="I114" t="s">
         <v>98</v>
       </c>
@@ -1947,17 +1947,17 @@
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:15" x14ac:dyDescent="0.3">
       <c r="I115" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="116" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:15" x14ac:dyDescent="0.3">
       <c r="H116" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="117" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:15" x14ac:dyDescent="0.3">
       <c r="H117" t="s">
         <v>109</v>
       </c>
